--- a/artfynd/A 23638-2023.xlsx
+++ b/artfynd/A 23638-2023.xlsx
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110060427</v>
+        <v>110060417</v>
       </c>
       <c r="B4" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,34 +938,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Brattland, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>411409.7740157063</v>
+        <v>411283.6994215957</v>
       </c>
       <c r="R4" t="n">
-        <v>7025032.483387623</v>
+        <v>7025288.901280839</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1008,6 +1012,11 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1034,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110060417</v>
+        <v>110060420</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1078,10 +1087,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>411283.6994215957</v>
+        <v>411272.1662275246</v>
       </c>
       <c r="R5" t="n">
-        <v>7025288.901280839</v>
+        <v>7025343.578228693</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1128,7 +1137,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1155,7 +1164,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110060420</v>
+        <v>110060415</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1199,10 +1208,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>411272.1662275246</v>
+        <v>411290.2087285602</v>
       </c>
       <c r="R6" t="n">
-        <v>7025343.578228693</v>
+        <v>7025264.01279831</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1276,7 +1285,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110060415</v>
+        <v>110060425</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1320,10 +1329,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>411290.2087285602</v>
+        <v>411500.4353926617</v>
       </c>
       <c r="R7" t="n">
-        <v>7025264.01279831</v>
+        <v>7025236.641728432</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1397,7 +1406,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110060425</v>
+        <v>110060419</v>
       </c>
       <c r="B8" t="n">
         <v>56395</v>
@@ -1441,10 +1450,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>411500.4353926617</v>
+        <v>411283.4832894632</v>
       </c>
       <c r="R8" t="n">
-        <v>7025236.641728432</v>
+        <v>7025313.615521053</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1491,7 +1500,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1518,10 +1527,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110060419</v>
+        <v>110060428</v>
       </c>
       <c r="B9" t="n">
-        <v>56395</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1534,38 +1543,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Brattland, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>411283.4832894632</v>
+        <v>411290.9159910702</v>
       </c>
       <c r="R9" t="n">
-        <v>7025313.615521053</v>
+        <v>7025370.912074795</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1608,11 +1613,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1639,10 +1639,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110060428</v>
+        <v>110060427</v>
       </c>
       <c r="B10" t="n">
-        <v>77506</v>
+        <v>89410</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1655,21 +1655,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>411290.9159910702</v>
+        <v>411409.7740157063</v>
       </c>
       <c r="R10" t="n">
-        <v>7025370.912074795</v>
+        <v>7025032.483387623</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>

--- a/artfynd/A 23638-2023.xlsx
+++ b/artfynd/A 23638-2023.xlsx
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110060417</v>
+        <v>110060427</v>
       </c>
       <c r="B4" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,38 +938,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Brattland, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>411283.6994215957</v>
+        <v>411409.7740157063</v>
       </c>
       <c r="R4" t="n">
-        <v>7025288.901280839</v>
+        <v>7025032.483387623</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1012,11 +1008,6 @@
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1043,7 +1034,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110060420</v>
+        <v>110060417</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1087,10 +1078,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>411272.1662275246</v>
+        <v>411283.6994215957</v>
       </c>
       <c r="R5" t="n">
-        <v>7025343.578228693</v>
+        <v>7025288.901280839</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1137,7 +1128,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1164,7 +1155,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110060415</v>
+        <v>110060420</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1208,10 +1199,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>411290.2087285602</v>
+        <v>411272.1662275246</v>
       </c>
       <c r="R6" t="n">
-        <v>7025264.01279831</v>
+        <v>7025343.578228693</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1285,7 +1276,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110060425</v>
+        <v>110060415</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1329,10 +1320,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>411500.4353926617</v>
+        <v>411290.2087285602</v>
       </c>
       <c r="R7" t="n">
-        <v>7025236.641728432</v>
+        <v>7025264.01279831</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1406,7 +1397,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110060419</v>
+        <v>110060425</v>
       </c>
       <c r="B8" t="n">
         <v>56395</v>
@@ -1450,10 +1441,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>411283.4832894632</v>
+        <v>411500.4353926617</v>
       </c>
       <c r="R8" t="n">
-        <v>7025313.615521053</v>
+        <v>7025236.641728432</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1500,7 +1491,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1527,10 +1518,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110060428</v>
+        <v>110060419</v>
       </c>
       <c r="B9" t="n">
-        <v>77506</v>
+        <v>56395</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1543,34 +1534,38 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Brattland, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>411290.9159910702</v>
+        <v>411283.4832894632</v>
       </c>
       <c r="R9" t="n">
-        <v>7025370.912074795</v>
+        <v>7025313.615521053</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1613,6 +1608,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1639,10 +1639,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110060427</v>
+        <v>110060428</v>
       </c>
       <c r="B10" t="n">
-        <v>89410</v>
+        <v>77506</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1655,21 +1655,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1679,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>411409.7740157063</v>
+        <v>411290.9159910702</v>
       </c>
       <c r="R10" t="n">
-        <v>7025032.483387623</v>
+        <v>7025370.912074795</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
